--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\Documents\workspace\ProductMap\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T76\Documents\GitHub\ProductMap\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,19 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:V14"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="17" width="1.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="21" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,7 +450,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -491,11 +491,8 @@
       <c r="T2">
         <v>11</v>
       </c>
-      <c r="U2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -514,13 +511,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -532,16 +529,19 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,13 +557,16 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -574,11 +577,20 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -589,11 +601,20 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -606,11 +627,20 @@
       <c r="I8">
         <v>6</v>
       </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -621,11 +651,17 @@
       <c r="I9">
         <v>7</v>
       </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -636,11 +672,17 @@
       <c r="I10">
         <v>8</v>
       </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -651,11 +693,17 @@
       <c r="I11">
         <v>9</v>
       </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -666,11 +714,17 @@
       <c r="I12">
         <v>10</v>
       </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -683,15 +737,13 @@
       <c r="I13">
         <v>11</v>
       </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
       <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="U14">
         <v>0</v>
       </c>
     </row>

--- a/input/graph.xlsx
+++ b/input/graph.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T76\Documents\GitHub\ProductMap\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,13 +427,13 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="21" width="2.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.3125" customWidth="1"/>
+    <col min="10" max="21" width="2.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,7 +446,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -492,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -517,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -541,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -590,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -614,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -640,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -661,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -682,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -703,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -724,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
